--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_PERSONAL\GitHub\05_Hvac-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCFF70EC-68DC-4844-B6DC-2E0BF6394491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00140245-3764-4DB3-8B05-C9F3146C05F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2820" yWindow="2820" windowWidth="17280" windowHeight="8964" xr2:uid="{F25C85A2-6D57-4F5F-AF95-E73EA62CA581}"/>
   </bookViews>
@@ -36,12 +36,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>aldo</t>
   </si>
   <si>
     <t>costos</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Modifica</t>
   </si>
 </sst>
 </file>
@@ -413,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D987675-5481-4B3B-A266-279B360F12DF}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -421,19 +427,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:3">
       <c r="A4">
-        <v>1500</v>
+        <v>4500</v>
+      </c>
+      <c r="C4">
+        <v>2600</v>
       </c>
     </row>
   </sheetData>
